--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY29"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111941815</v>
+        <v>111932664</v>
       </c>
       <c r="B2" t="n">
-        <v>77515</v>
+        <v>89672</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>71</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466322.0649085536</v>
+        <v>466215.6937692813</v>
       </c>
       <c r="R2" t="n">
-        <v>6821006.769458532</v>
+        <v>6820389.803268042</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -769,11 +769,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>rikl</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,17 +789,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111941046</v>
+        <v>111941151</v>
       </c>
       <c r="B3" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -844,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466187.3238728072</v>
+        <v>466252.4129913643</v>
       </c>
       <c r="R3" t="n">
-        <v>6820421.57897226</v>
+        <v>6820479.1700904</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -917,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111941765</v>
+        <v>111941651</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -965,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466413.7788343028</v>
+        <v>466415.338333576</v>
       </c>
       <c r="R4" t="n">
-        <v>6820854.133933268</v>
+        <v>6820719.068914215</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1037,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111941039</v>
+        <v>111941329</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1053,21 +1048,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1080,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466198.2096357141</v>
+        <v>466345.4857086202</v>
       </c>
       <c r="R5" t="n">
-        <v>6820410.495886646</v>
+        <v>6820465.379867064</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1153,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111941108</v>
+        <v>111941831</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1169,26 +1164,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466210.3070825295</v>
+        <v>466322.7466770636</v>
       </c>
       <c r="R6" t="n">
-        <v>6820425.650302363</v>
+        <v>6821027.758616986</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,7 +1250,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1262,17 +1261,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111941183</v>
+        <v>111941316</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1285,21 +1284,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1312,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466282.3234669994</v>
+        <v>466309.3385071067</v>
       </c>
       <c r="R7" t="n">
-        <v>6820507.514093622</v>
+        <v>6820483.866376123</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1385,10 +1384,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111941116</v>
+        <v>111941815</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1401,21 +1400,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1427,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466217.2810164</v>
+        <v>466322.0649085536</v>
       </c>
       <c r="R8" t="n">
-        <v>6820405.537457108</v>
+        <v>6821006.769458532</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1476,6 +1475,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>rikl</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1494,17 +1498,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111941036</v>
+        <v>111941186</v>
       </c>
       <c r="B9" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1517,21 +1521,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1544,10 +1548,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466202.3948933159</v>
+        <v>466292.2858541526</v>
       </c>
       <c r="R9" t="n">
-        <v>6820398.523567535</v>
+        <v>6820499.781292035</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1598,6 +1602,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1609,17 +1614,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111941170</v>
+        <v>111941304</v>
       </c>
       <c r="B10" t="n">
-        <v>77550</v>
+        <v>78081</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,21 +1637,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>185</v>
+        <v>229821</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1659,13 +1664,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466281.1216531555</v>
+        <v>466297.5338563451</v>
       </c>
       <c r="R10" t="n">
-        <v>6820531.388039795</v>
+        <v>6820498.775792331</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1732,10 +1737,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111941304</v>
+        <v>111941104</v>
       </c>
       <c r="B11" t="n">
-        <v>78081</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1748,21 +1753,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1775,13 +1780,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466297.5338563451</v>
+        <v>466204.5019952855</v>
       </c>
       <c r="R11" t="n">
-        <v>6820498.775792331</v>
+        <v>6820418.547982995</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1848,7 +1853,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111941104</v>
+        <v>111941183</v>
       </c>
       <c r="B12" t="n">
         <v>77515</v>
@@ -1891,10 +1896,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466204.5019952855</v>
+        <v>466282.3234669994</v>
       </c>
       <c r="R12" t="n">
-        <v>6820418.547982995</v>
+        <v>6820507.514093622</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1964,10 +1969,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111941129</v>
+        <v>111941170</v>
       </c>
       <c r="B13" t="n">
-        <v>88489</v>
+        <v>77550</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1980,21 +1985,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1962</v>
+        <v>185</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2007,10 +2012,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466215.6937692813</v>
+        <v>466281.1216531555</v>
       </c>
       <c r="R13" t="n">
-        <v>6820389.803268042</v>
+        <v>6820531.388039795</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2080,10 +2085,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111941777</v>
+        <v>111941827</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2096,21 +2101,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2123,10 +2128,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466414.7808195428</v>
+        <v>466325.0201382869</v>
       </c>
       <c r="R14" t="n">
-        <v>6820858.896214374</v>
+        <v>6821015.807131591</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2196,10 +2201,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111941668</v>
+        <v>111941182</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2212,31 +2217,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466427.1314100454</v>
+        <v>466277.0940431859</v>
       </c>
       <c r="R15" t="n">
-        <v>6820752.359779999</v>
+        <v>6820510.428419992</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2298,6 +2298,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2309,17 +2310,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111941651</v>
+        <v>111941039</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>77268</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2332,31 +2333,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2364,10 +2360,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466415.338333576</v>
+        <v>466198.2096357141</v>
       </c>
       <c r="R16" t="n">
-        <v>6820719.068914215</v>
+        <v>6820410.495886646</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2418,6 +2414,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2429,17 +2426,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111941043</v>
+        <v>111941046</v>
       </c>
       <c r="B17" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2452,21 +2449,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2479,10 +2476,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466184.335225084</v>
+        <v>466187.3238728072</v>
       </c>
       <c r="R17" t="n">
-        <v>6820409.199356439</v>
+        <v>6820421.57897226</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2552,10 +2549,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111941329</v>
+        <v>111941325</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2568,21 +2565,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2595,10 +2592,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466345.4857086202</v>
+        <v>466355.6705695012</v>
       </c>
       <c r="R18" t="n">
-        <v>6820465.379867064</v>
+        <v>6820480.553092441</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2668,10 +2665,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111941030</v>
+        <v>111941313</v>
       </c>
       <c r="B19" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2684,26 +2681,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2711,10 +2713,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466186.970276381</v>
+        <v>466312.3498233365</v>
       </c>
       <c r="R19" t="n">
-        <v>6820385.310550921</v>
+        <v>6820498.631843186</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2776,14 +2778,14 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111941151</v>
+        <v>111941102</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2826,10 +2828,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466252.4129913643</v>
+        <v>466196.4420402081</v>
       </c>
       <c r="R20" t="n">
-        <v>6820479.1700904</v>
+        <v>6820425.308156498</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2899,10 +2901,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111941102</v>
+        <v>111941030</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,21 +2917,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2942,10 +2944,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466196.4420402081</v>
+        <v>466186.970276381</v>
       </c>
       <c r="R21" t="n">
-        <v>6820425.308156498</v>
+        <v>6820385.310550921</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2996,7 +2998,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3008,17 +3009,17 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941325</v>
+        <v>111941765</v>
       </c>
       <c r="B22" t="n">
-        <v>77550</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3031,26 +3032,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3058,10 +3064,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466355.6705695012</v>
+        <v>466413.7788343028</v>
       </c>
       <c r="R22" t="n">
-        <v>6820480.553092441</v>
+        <v>6820854.133933268</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3112,7 +3118,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3124,17 +3129,17 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941316</v>
+        <v>111941777</v>
       </c>
       <c r="B23" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3147,21 +3152,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3174,10 +3179,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466309.3385071067</v>
+        <v>466414.7808195428</v>
       </c>
       <c r="R23" t="n">
-        <v>6820483.866376123</v>
+        <v>6820858.896214374</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3240,17 +3245,17 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941182</v>
+        <v>111941129</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3263,21 +3268,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3290,10 +3295,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466277.0940431859</v>
+        <v>466215.6937692813</v>
       </c>
       <c r="R24" t="n">
-        <v>6820510.428419992</v>
+        <v>6820389.803268042</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3363,10 +3368,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111941831</v>
+        <v>111941043</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>77268</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3379,31 +3384,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3411,10 +3411,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466322.7466770636</v>
+        <v>466184.335225084</v>
       </c>
       <c r="R25" t="n">
-        <v>6821027.758616986</v>
+        <v>6820409.199356439</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3465,6 +3465,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3476,17 +3477,17 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111941827</v>
+        <v>111941108</v>
       </c>
       <c r="B26" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3499,21 +3500,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3526,10 +3527,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466325.0201382869</v>
+        <v>466210.3070825295</v>
       </c>
       <c r="R26" t="n">
-        <v>6821015.807131591</v>
+        <v>6820425.650302363</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3592,17 +3593,17 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111941186</v>
+        <v>111941036</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3615,21 +3616,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3642,10 +3643,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466292.2858541526</v>
+        <v>466202.3948933159</v>
       </c>
       <c r="R27" t="n">
-        <v>6820499.781292035</v>
+        <v>6820398.523567535</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3696,7 +3697,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3708,17 +3708,17 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111941313</v>
+        <v>111941116</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>77268</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3731,31 +3731,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3763,10 +3758,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466312.3498233365</v>
+        <v>466217.2810164</v>
       </c>
       <c r="R28" t="n">
-        <v>6820498.631843186</v>
+        <v>6820405.537457108</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3817,6 +3812,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3949,6 +3945,126 @@
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111941668</v>
+      </c>
+      <c r="B30" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Eberget, Dlr</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>466427.1314100454</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6820752.359779999</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Dalarna</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Orsa</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -3016,10 +3016,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941765</v>
+        <v>111941777</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3032,31 +3032,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3064,10 +3059,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466413.7788343028</v>
+        <v>466414.7808195428</v>
       </c>
       <c r="R22" t="n">
-        <v>6820854.133933268</v>
+        <v>6820858.896214374</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3118,6 +3113,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3136,10 +3132,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941777</v>
+        <v>111941129</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3152,21 +3148,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3179,10 +3175,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466414.7808195428</v>
+        <v>466215.6937692813</v>
       </c>
       <c r="R23" t="n">
-        <v>6820858.896214374</v>
+        <v>6820389.803268042</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3245,17 +3241,17 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941129</v>
+        <v>111941043</v>
       </c>
       <c r="B24" t="n">
-        <v>88489</v>
+        <v>77268</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3268,21 +3264,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3295,10 +3291,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466215.6937692813</v>
+        <v>466184.335225084</v>
       </c>
       <c r="R24" t="n">
-        <v>6820389.803268042</v>
+        <v>6820409.199356439</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3368,10 +3364,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111941043</v>
+        <v>111941765</v>
       </c>
       <c r="B25" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3384,26 +3380,31 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3411,10 +3412,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466184.335225084</v>
+        <v>466413.7788343028</v>
       </c>
       <c r="R25" t="n">
-        <v>6820409.199356439</v>
+        <v>6820854.133933268</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3465,7 +3466,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
@@ -3831,10 +3831,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111941321</v>
+        <v>111941668</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3847,26 +3847,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3874,10 +3879,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466314.5865380571</v>
+        <v>466427.1314100454</v>
       </c>
       <c r="R29" t="n">
-        <v>6820482.860897989</v>
+        <v>6820752.359779999</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3928,7 +3933,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3940,17 +3944,17 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111941668</v>
+        <v>111941321</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3963,31 +3967,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3995,10 +3994,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466427.1314100454</v>
+        <v>466314.5865380571</v>
       </c>
       <c r="R30" t="n">
-        <v>6820752.359779999</v>
+        <v>6820482.860897989</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4049,6 +4048,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111941151</v>
+        <v>111941116</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466252.4129913643</v>
+        <v>466217.2810164</v>
       </c>
       <c r="R3" t="n">
-        <v>6820479.1700904</v>
+        <v>6820405.537457108</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111941651</v>
+        <v>111941668</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466415.338333576</v>
+        <v>466427.1314100454</v>
       </c>
       <c r="R4" t="n">
-        <v>6820719.068914215</v>
+        <v>6820752.359779999</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111941329</v>
+        <v>111941765</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,26 +1048,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1075,10 +1080,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466345.4857086202</v>
+        <v>466413.7788343028</v>
       </c>
       <c r="R5" t="n">
-        <v>6820465.379867064</v>
+        <v>6820854.133933268</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1129,7 +1134,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1141,17 +1145,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111941831</v>
+        <v>111941170</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>77550</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,31 +1168,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1196,10 +1195,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466322.7466770636</v>
+        <v>466281.1216531555</v>
       </c>
       <c r="R6" t="n">
-        <v>6821027.758616986</v>
+        <v>6820531.388039795</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1250,6 +1249,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111941316</v>
+        <v>111941329</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1284,21 +1284,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466309.3385071067</v>
+        <v>466345.4857086202</v>
       </c>
       <c r="R7" t="n">
-        <v>6820483.866376123</v>
+        <v>6820465.379867064</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111941815</v>
+        <v>111941321</v>
       </c>
       <c r="B8" t="n">
         <v>77515</v>
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466322.0649085536</v>
+        <v>466314.5865380571</v>
       </c>
       <c r="R8" t="n">
-        <v>6821006.769458532</v>
+        <v>6820482.860897989</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1475,11 +1475,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>rikl</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1498,17 +1493,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111941186</v>
+        <v>111941043</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1521,21 +1516,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1548,10 +1543,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466292.2858541526</v>
+        <v>466184.335225084</v>
       </c>
       <c r="R9" t="n">
-        <v>6820499.781292035</v>
+        <v>6820409.199356439</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1621,10 +1616,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111941304</v>
+        <v>111941815</v>
       </c>
       <c r="B10" t="n">
-        <v>78081</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1637,21 +1632,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1664,13 +1659,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466297.5338563451</v>
+        <v>466322.0649085536</v>
       </c>
       <c r="R10" t="n">
-        <v>6820498.775792331</v>
+        <v>6821006.769458532</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1710,6 +1705,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>rikl</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1730,17 +1730,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111941104</v>
+        <v>111941316</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1753,21 +1753,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1780,10 +1780,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466204.5019952855</v>
+        <v>466309.3385071067</v>
       </c>
       <c r="R11" t="n">
-        <v>6820418.547982995</v>
+        <v>6820483.866376123</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111941183</v>
+        <v>111941186</v>
       </c>
       <c r="B12" t="n">
         <v>77515</v>
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466282.3234669994</v>
+        <v>466292.2858541526</v>
       </c>
       <c r="R12" t="n">
-        <v>6820507.514093622</v>
+        <v>6820499.781292035</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1969,10 +1969,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111941170</v>
+        <v>111941102</v>
       </c>
       <c r="B13" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1985,21 +1985,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2012,10 +2012,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466281.1216531555</v>
+        <v>466196.4420402081</v>
       </c>
       <c r="R13" t="n">
-        <v>6820531.388039795</v>
+        <v>6820425.308156498</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2085,10 +2085,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111941827</v>
+        <v>111941183</v>
       </c>
       <c r="B14" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2101,21 +2101,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466325.0201382869</v>
+        <v>466282.3234669994</v>
       </c>
       <c r="R14" t="n">
-        <v>6821015.807131591</v>
+        <v>6820507.514093622</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2194,17 +2194,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111941182</v>
+        <v>111941030</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2217,21 +2217,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466277.0940431859</v>
+        <v>466186.970276381</v>
       </c>
       <c r="R15" t="n">
-        <v>6820510.428419992</v>
+        <v>6820385.310550921</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2298,7 +2298,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2310,17 +2309,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111941039</v>
+        <v>111941777</v>
       </c>
       <c r="B16" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2333,21 +2332,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2360,10 +2359,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466198.2096357141</v>
+        <v>466414.7808195428</v>
       </c>
       <c r="R16" t="n">
-        <v>6820410.495886646</v>
+        <v>6820858.896214374</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2426,17 +2425,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111941046</v>
+        <v>111941151</v>
       </c>
       <c r="B17" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2449,21 +2448,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2476,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466187.3238728072</v>
+        <v>466252.4129913643</v>
       </c>
       <c r="R17" t="n">
-        <v>6820421.57897226</v>
+        <v>6820479.1700904</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2549,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111941325</v>
+        <v>111941039</v>
       </c>
       <c r="B18" t="n">
-        <v>77550</v>
+        <v>77268</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2565,21 +2564,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2592,10 +2591,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466355.6705695012</v>
+        <v>466198.2096357141</v>
       </c>
       <c r="R18" t="n">
-        <v>6820480.553092441</v>
+        <v>6820410.495886646</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2665,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111941313</v>
+        <v>111941036</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>88489</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2681,31 +2680,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>1962</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2713,10 +2707,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466312.3498233365</v>
+        <v>466202.3948933159</v>
       </c>
       <c r="R19" t="n">
-        <v>6820498.631843186</v>
+        <v>6820398.523567535</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2778,14 +2772,14 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111941102</v>
+        <v>111941182</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2828,10 +2822,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466196.4420402081</v>
+        <v>466277.0940431859</v>
       </c>
       <c r="R20" t="n">
-        <v>6820425.308156498</v>
+        <v>6820510.428419992</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2901,10 +2895,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111941030</v>
+        <v>111941325</v>
       </c>
       <c r="B21" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2917,21 +2911,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2944,10 +2938,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466186.970276381</v>
+        <v>466355.6705695012</v>
       </c>
       <c r="R21" t="n">
-        <v>6820385.310550921</v>
+        <v>6820480.553092441</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2998,6 +2992,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3009,17 +3004,17 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941777</v>
+        <v>111941651</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3032,26 +3027,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3059,10 +3059,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466414.7808195428</v>
+        <v>466415.338333576</v>
       </c>
       <c r="R22" t="n">
-        <v>6820858.896214374</v>
+        <v>6820719.068914215</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3113,7 +3113,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3132,10 +3131,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941129</v>
+        <v>111941831</v>
       </c>
       <c r="B23" t="n">
-        <v>88489</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3148,26 +3147,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1962</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3175,10 +3179,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466215.6937692813</v>
+        <v>466322.7466770636</v>
       </c>
       <c r="R23" t="n">
-        <v>6820389.803268042</v>
+        <v>6821027.758616986</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3229,7 +3233,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3241,14 +3244,14 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941043</v>
+        <v>111941827</v>
       </c>
       <c r="B24" t="n">
         <v>77268</v>
@@ -3291,10 +3294,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466184.335225084</v>
+        <v>466325.0201382869</v>
       </c>
       <c r="R24" t="n">
-        <v>6820409.199356439</v>
+        <v>6821015.807131591</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3357,17 +3360,17 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111941765</v>
+        <v>111941304</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>78081</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3380,31 +3383,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>229821</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3412,13 +3410,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466413.7788343028</v>
+        <v>466297.5338563451</v>
       </c>
       <c r="R25" t="n">
-        <v>6820854.133933268</v>
+        <v>6820498.775792331</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3466,6 +3464,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3477,17 +3476,17 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111941108</v>
+        <v>111941313</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3500,26 +3499,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3527,10 +3531,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466210.3070825295</v>
+        <v>466312.3498233365</v>
       </c>
       <c r="R26" t="n">
-        <v>6820425.650302363</v>
+        <v>6820498.631843186</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3581,7 +3585,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3600,10 +3603,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111941036</v>
+        <v>111941046</v>
       </c>
       <c r="B27" t="n">
-        <v>88489</v>
+        <v>77550</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3616,21 +3619,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1962</v>
+        <v>185</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3643,10 +3646,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466202.3948933159</v>
+        <v>466187.3238728072</v>
       </c>
       <c r="R27" t="n">
-        <v>6820398.523567535</v>
+        <v>6820421.57897226</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3697,6 +3700,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3708,17 +3712,17 @@
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111941116</v>
+        <v>111941129</v>
       </c>
       <c r="B28" t="n">
-        <v>77268</v>
+        <v>88489</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3731,21 +3735,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3758,10 +3762,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466217.2810164</v>
+        <v>466215.6937692813</v>
       </c>
       <c r="R28" t="n">
-        <v>6820405.537457108</v>
+        <v>6820389.803268042</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3831,10 +3835,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111941668</v>
+        <v>111941108</v>
       </c>
       <c r="B29" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3847,31 +3851,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3879,10 +3878,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466427.1314100454</v>
+        <v>466210.3070825295</v>
       </c>
       <c r="R29" t="n">
-        <v>6820752.359779999</v>
+        <v>6820425.650302363</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3933,6 +3932,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3944,14 +3944,14 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111941321</v>
+        <v>111941104</v>
       </c>
       <c r="B30" t="n">
         <v>77515</v>
@@ -3994,10 +3994,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466314.5865380571</v>
+        <v>466204.5019952855</v>
       </c>
       <c r="R30" t="n">
-        <v>6820482.860897989</v>
+        <v>6820418.547982995</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -3131,10 +3131,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941831</v>
+        <v>111941304</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>78081</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3147,31 +3147,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>229821</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3179,13 +3174,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466322.7466770636</v>
+        <v>466297.5338563451</v>
       </c>
       <c r="R23" t="n">
-        <v>6821027.758616986</v>
+        <v>6820498.775792331</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3233,6 +3228,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3244,17 +3240,17 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941827</v>
+        <v>111941831</v>
       </c>
       <c r="B24" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,26 +3263,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3294,10 +3295,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466325.0201382869</v>
+        <v>466322.7466770636</v>
       </c>
       <c r="R24" t="n">
-        <v>6821015.807131591</v>
+        <v>6821027.758616986</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3348,7 +3349,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3367,10 +3367,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111941304</v>
+        <v>111941827</v>
       </c>
       <c r="B25" t="n">
-        <v>78081</v>
+        <v>77268</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3383,21 +3383,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3410,13 +3410,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466297.5338563451</v>
+        <v>466325.0201382869</v>
       </c>
       <c r="R25" t="n">
-        <v>6820498.775792331</v>
+        <v>6821015.807131591</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111941116</v>
+        <v>111941108</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466217.2810164</v>
+        <v>466210.3070825295</v>
       </c>
       <c r="R3" t="n">
-        <v>6820405.537457108</v>
+        <v>6820425.650302363</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111941668</v>
+        <v>111941329</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,31 +928,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -960,10 +955,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466427.1314100454</v>
+        <v>466345.4857086202</v>
       </c>
       <c r="R4" t="n">
-        <v>6820752.359779999</v>
+        <v>6820465.379867064</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1014,6 +1009,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1025,17 +1021,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111941765</v>
+        <v>111941046</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>77550</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,31 +1044,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1080,10 +1071,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466413.7788343028</v>
+        <v>466187.3238728072</v>
       </c>
       <c r="R5" t="n">
-        <v>6820854.133933268</v>
+        <v>6820421.57897226</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1134,6 +1125,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1145,17 +1137,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111941170</v>
+        <v>111941765</v>
       </c>
       <c r="B6" t="n">
-        <v>77550</v>
+        <v>56398</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1168,26 +1160,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1195,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466281.1216531555</v>
+        <v>466413.7788343028</v>
       </c>
       <c r="R6" t="n">
-        <v>6820531.388039795</v>
+        <v>6820854.133933268</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1249,7 +1246,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1261,14 +1257,14 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111941329</v>
+        <v>111941777</v>
       </c>
       <c r="B7" t="n">
         <v>77515</v>
@@ -1311,10 +1307,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466345.4857086202</v>
+        <v>466414.7808195428</v>
       </c>
       <c r="R7" t="n">
-        <v>6820465.379867064</v>
+        <v>6820858.896214374</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1377,14 +1373,14 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111941321</v>
+        <v>111941102</v>
       </c>
       <c r="B8" t="n">
         <v>77515</v>
@@ -1427,10 +1423,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466314.5865380571</v>
+        <v>466196.4420402081</v>
       </c>
       <c r="R8" t="n">
-        <v>6820482.860897989</v>
+        <v>6820425.308156498</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,10 +1496,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111941043</v>
+        <v>111941321</v>
       </c>
       <c r="B9" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1516,21 +1512,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1543,10 +1539,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466184.335225084</v>
+        <v>466314.5865380571</v>
       </c>
       <c r="R9" t="n">
-        <v>6820409.199356439</v>
+        <v>6820482.860897989</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1616,10 +1612,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111941815</v>
+        <v>111941043</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1632,21 +1628,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1659,10 +1655,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466322.0649085536</v>
+        <v>466184.335225084</v>
       </c>
       <c r="R10" t="n">
-        <v>6821006.769458532</v>
+        <v>6820409.199356439</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1707,11 +1703,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>rikl</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
@@ -1730,17 +1721,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111941316</v>
+        <v>111941186</v>
       </c>
       <c r="B11" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1753,21 +1744,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1780,10 +1771,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466309.3385071067</v>
+        <v>466292.2858541526</v>
       </c>
       <c r="R11" t="n">
-        <v>6820483.866376123</v>
+        <v>6820499.781292035</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1853,7 +1844,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111941186</v>
+        <v>111941815</v>
       </c>
       <c r="B12" t="n">
         <v>77515</v>
@@ -1896,10 +1887,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466292.2858541526</v>
+        <v>466322.0649085536</v>
       </c>
       <c r="R12" t="n">
-        <v>6820499.781292035</v>
+        <v>6821006.769458532</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1944,6 +1935,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>rikl</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1962,17 +1958,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111941102</v>
+        <v>111941313</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1985,26 +1981,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2012,10 +2013,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466196.4420402081</v>
+        <v>466312.3498233365</v>
       </c>
       <c r="R13" t="n">
-        <v>6820425.308156498</v>
+        <v>6820498.631843186</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2066,7 +2067,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111941183</v>
+        <v>111941104</v>
       </c>
       <c r="B14" t="n">
         <v>77515</v>
@@ -2128,10 +2128,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466282.3234669994</v>
+        <v>466204.5019952855</v>
       </c>
       <c r="R14" t="n">
-        <v>6820507.514093622</v>
+        <v>6820418.547982995</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2201,10 +2201,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111941030</v>
+        <v>111941668</v>
       </c>
       <c r="B15" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2217,26 +2217,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2244,10 +2249,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466186.970276381</v>
+        <v>466427.1314100454</v>
       </c>
       <c r="R15" t="n">
-        <v>6820385.310550921</v>
+        <v>6820752.359779999</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2316,10 +2321,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111941777</v>
+        <v>111941831</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2332,26 +2337,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2359,10 +2369,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466414.7808195428</v>
+        <v>466322.7466770636</v>
       </c>
       <c r="R16" t="n">
-        <v>6820858.896214374</v>
+        <v>6821027.758616986</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2413,7 +2423,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2432,7 +2441,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111941151</v>
+        <v>111941182</v>
       </c>
       <c r="B17" t="n">
         <v>77515</v>
@@ -2475,10 +2484,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466252.4129913643</v>
+        <v>466277.0940431859</v>
       </c>
       <c r="R17" t="n">
-        <v>6820479.1700904</v>
+        <v>6820510.428419992</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2548,10 +2557,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111941039</v>
+        <v>111941151</v>
       </c>
       <c r="B18" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2564,21 +2573,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2591,10 +2600,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466198.2096357141</v>
+        <v>466252.4129913643</v>
       </c>
       <c r="R18" t="n">
-        <v>6820410.495886646</v>
+        <v>6820479.1700904</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2664,7 +2673,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111941036</v>
+        <v>111941129</v>
       </c>
       <c r="B19" t="n">
         <v>88489</v>
@@ -2707,10 +2716,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466202.3948933159</v>
+        <v>466215.6937692813</v>
       </c>
       <c r="R19" t="n">
-        <v>6820398.523567535</v>
+        <v>6820389.803268042</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2761,6 +2770,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2772,17 +2782,17 @@
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111941182</v>
+        <v>111941325</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2795,21 +2805,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2822,10 +2832,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466277.0940431859</v>
+        <v>466355.6705695012</v>
       </c>
       <c r="R20" t="n">
-        <v>6820510.428419992</v>
+        <v>6820480.553092441</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2895,7 +2905,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111941325</v>
+        <v>111941170</v>
       </c>
       <c r="B21" t="n">
         <v>77550</v>
@@ -2938,10 +2948,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466355.6705695012</v>
+        <v>466281.1216531555</v>
       </c>
       <c r="R21" t="n">
-        <v>6820480.553092441</v>
+        <v>6820531.388039795</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3011,10 +3021,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941651</v>
+        <v>111941827</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>77268</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3027,31 +3037,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3059,10 +3064,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466415.338333576</v>
+        <v>466325.0201382869</v>
       </c>
       <c r="R22" t="n">
-        <v>6820719.068914215</v>
+        <v>6821015.807131591</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3113,6 +3118,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3131,10 +3137,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941304</v>
+        <v>111941116</v>
       </c>
       <c r="B23" t="n">
-        <v>78081</v>
+        <v>77268</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3147,21 +3153,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3174,13 +3180,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466297.5338563451</v>
+        <v>466217.2810164</v>
       </c>
       <c r="R23" t="n">
-        <v>6820498.775792331</v>
+        <v>6820405.537457108</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3247,10 +3253,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941831</v>
+        <v>111941304</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>78081</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3263,31 +3269,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>229821</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3295,13 +3296,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466322.7466770636</v>
+        <v>466297.5338563451</v>
       </c>
       <c r="R24" t="n">
-        <v>6821027.758616986</v>
+        <v>6820498.775792331</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3349,6 +3350,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3360,14 +3362,14 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111941827</v>
+        <v>111941316</v>
       </c>
       <c r="B25" t="n">
         <v>77268</v>
@@ -3410,10 +3412,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466325.0201382869</v>
+        <v>466309.3385071067</v>
       </c>
       <c r="R25" t="n">
-        <v>6821015.807131591</v>
+        <v>6820483.866376123</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3476,17 +3478,17 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111941313</v>
+        <v>111941036</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>88489</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3499,31 +3501,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>1962</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3531,10 +3528,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466312.3498233365</v>
+        <v>466202.3948933159</v>
       </c>
       <c r="R26" t="n">
-        <v>6820498.631843186</v>
+        <v>6820398.523567535</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3596,17 +3593,17 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111941046</v>
+        <v>111941039</v>
       </c>
       <c r="B27" t="n">
-        <v>77550</v>
+        <v>77268</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3619,21 +3616,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3646,10 +3643,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466187.3238728072</v>
+        <v>466198.2096357141</v>
       </c>
       <c r="R27" t="n">
-        <v>6820421.57897226</v>
+        <v>6820410.495886646</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3719,10 +3716,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111941129</v>
+        <v>111941030</v>
       </c>
       <c r="B28" t="n">
-        <v>88489</v>
+        <v>77268</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3735,21 +3732,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3762,10 +3759,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466215.6937692813</v>
+        <v>466186.970276381</v>
       </c>
       <c r="R28" t="n">
-        <v>6820389.803268042</v>
+        <v>6820385.310550921</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3816,7 +3813,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3828,14 +3824,14 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111941108</v>
+        <v>111941183</v>
       </c>
       <c r="B29" t="n">
         <v>77515</v>
@@ -3878,10 +3874,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466210.3070825295</v>
+        <v>466282.3234669994</v>
       </c>
       <c r="R29" t="n">
-        <v>6820425.650302363</v>
+        <v>6820507.514093622</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3951,10 +3947,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111941104</v>
+        <v>111941651</v>
       </c>
       <c r="B30" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3967,26 +3963,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3994,10 +3995,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466204.5019952855</v>
+        <v>466415.338333576</v>
       </c>
       <c r="R30" t="n">
-        <v>6820418.547982995</v>
+        <v>6820719.068914215</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4048,7 +4049,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111941108</v>
+        <v>111941182</v>
       </c>
       <c r="B3" t="n">
         <v>77515</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466210.3070825295</v>
+        <v>466277.0940431859</v>
       </c>
       <c r="R3" t="n">
-        <v>6820425.650302363</v>
+        <v>6820510.428419992</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111941329</v>
+        <v>111941831</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,26 +928,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -955,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466345.4857086202</v>
+        <v>466322.7466770636</v>
       </c>
       <c r="R4" t="n">
-        <v>6820465.379867064</v>
+        <v>6821027.758616986</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1009,7 +1014,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1021,17 +1025,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111941046</v>
+        <v>111941030</v>
       </c>
       <c r="B5" t="n">
-        <v>77550</v>
+        <v>77268</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,21 +1048,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1071,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466187.3238728072</v>
+        <v>466186.970276381</v>
       </c>
       <c r="R5" t="n">
-        <v>6820421.57897226</v>
+        <v>6820385.310550921</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1125,7 +1129,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1137,17 +1140,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111941765</v>
+        <v>111941186</v>
       </c>
       <c r="B6" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,31 +1163,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1192,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466413.7788343028</v>
+        <v>466292.2858541526</v>
       </c>
       <c r="R6" t="n">
-        <v>6820854.133933268</v>
+        <v>6820499.781292035</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1246,6 +1244,7 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1257,17 +1256,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111941777</v>
+        <v>111941036</v>
       </c>
       <c r="B7" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,21 +1279,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1307,10 +1306,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466414.7808195428</v>
+        <v>466202.3948933159</v>
       </c>
       <c r="R7" t="n">
-        <v>6820858.896214374</v>
+        <v>6820398.523567535</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1361,7 +1360,6 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1380,10 +1378,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111941102</v>
+        <v>111941046</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1396,21 +1394,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1423,10 +1421,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466196.4420402081</v>
+        <v>466187.3238728072</v>
       </c>
       <c r="R8" t="n">
-        <v>6820425.308156498</v>
+        <v>6820421.57897226</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1496,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111941321</v>
+        <v>111941765</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1512,26 +1510,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1539,10 +1542,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466314.5865380571</v>
+        <v>466413.7788343028</v>
       </c>
       <c r="R9" t="n">
-        <v>6820482.860897989</v>
+        <v>6820854.133933268</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1593,7 +1596,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1605,17 +1607,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111941043</v>
+        <v>111941668</v>
       </c>
       <c r="B10" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1628,26 +1630,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1655,10 +1662,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466184.335225084</v>
+        <v>466427.1314100454</v>
       </c>
       <c r="R10" t="n">
-        <v>6820409.199356439</v>
+        <v>6820752.359779999</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1709,7 +1716,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1721,17 +1727,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111941186</v>
+        <v>111941325</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1744,21 +1750,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1771,10 +1777,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466292.2858541526</v>
+        <v>466355.6705695012</v>
       </c>
       <c r="R11" t="n">
-        <v>6820499.781292035</v>
+        <v>6820480.553092441</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1844,10 +1850,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111941815</v>
+        <v>111941043</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1860,21 +1866,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1887,10 +1893,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466322.0649085536</v>
+        <v>466184.335225084</v>
       </c>
       <c r="R12" t="n">
-        <v>6821006.769458532</v>
+        <v>6820409.199356439</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1935,11 +1941,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>rikl</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
@@ -1958,17 +1959,17 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111941313</v>
+        <v>111941777</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1981,31 +1982,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2013,10 +2009,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466312.3498233365</v>
+        <v>466414.7808195428</v>
       </c>
       <c r="R13" t="n">
-        <v>6820498.631843186</v>
+        <v>6820858.896214374</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2067,6 +2063,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2078,17 +2075,17 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111941104</v>
+        <v>111941316</v>
       </c>
       <c r="B14" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2101,21 +2098,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2128,10 +2125,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466204.5019952855</v>
+        <v>466309.3385071067</v>
       </c>
       <c r="R14" t="n">
-        <v>6820418.547982995</v>
+        <v>6820483.866376123</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2201,10 +2198,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111941668</v>
+        <v>111941039</v>
       </c>
       <c r="B15" t="n">
-        <v>56398</v>
+        <v>77268</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2217,31 +2214,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2249,10 +2241,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466427.1314100454</v>
+        <v>466198.2096357141</v>
       </c>
       <c r="R15" t="n">
-        <v>6820752.359779999</v>
+        <v>6820410.495886646</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2303,6 +2295,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2314,17 +2307,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111941831</v>
+        <v>111941329</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2337,31 +2330,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2369,10 +2357,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466322.7466770636</v>
+        <v>466345.4857086202</v>
       </c>
       <c r="R16" t="n">
-        <v>6821027.758616986</v>
+        <v>6820465.379867064</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2423,6 +2411,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2434,14 +2423,14 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111941182</v>
+        <v>111941815</v>
       </c>
       <c r="B17" t="n">
         <v>77515</v>
@@ -2484,10 +2473,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466277.0940431859</v>
+        <v>466322.0649085536</v>
       </c>
       <c r="R17" t="n">
-        <v>6820510.428419992</v>
+        <v>6821006.769458532</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2532,6 +2521,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>rikl</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2550,17 +2544,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111941151</v>
+        <v>111941170</v>
       </c>
       <c r="B18" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2573,21 +2567,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2600,10 +2594,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466252.4129913643</v>
+        <v>466281.1216531555</v>
       </c>
       <c r="R18" t="n">
-        <v>6820479.1700904</v>
+        <v>6820531.388039795</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2673,10 +2667,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111941129</v>
+        <v>111941183</v>
       </c>
       <c r="B19" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2689,21 +2683,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2716,10 +2710,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466215.6937692813</v>
+        <v>466282.3234669994</v>
       </c>
       <c r="R19" t="n">
-        <v>6820389.803268042</v>
+        <v>6820507.514093622</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2789,10 +2783,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111941325</v>
+        <v>111941304</v>
       </c>
       <c r="B20" t="n">
-        <v>77550</v>
+        <v>78081</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2805,21 +2799,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>185</v>
+        <v>229821</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2832,13 +2826,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466355.6705695012</v>
+        <v>466297.5338563451</v>
       </c>
       <c r="R20" t="n">
-        <v>6820480.553092441</v>
+        <v>6820498.775792331</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2905,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111941170</v>
+        <v>111941651</v>
       </c>
       <c r="B21" t="n">
-        <v>77550</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2921,26 +2915,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2948,10 +2947,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466281.1216531555</v>
+        <v>466415.338333576</v>
       </c>
       <c r="R21" t="n">
-        <v>6820531.388039795</v>
+        <v>6820719.068914215</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3002,7 +3001,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3014,17 +3012,17 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941827</v>
+        <v>111941102</v>
       </c>
       <c r="B22" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3037,21 +3035,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3064,10 +3062,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466325.0201382869</v>
+        <v>466196.4420402081</v>
       </c>
       <c r="R22" t="n">
-        <v>6821015.807131591</v>
+        <v>6820425.308156498</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3130,17 +3128,17 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941116</v>
+        <v>111941151</v>
       </c>
       <c r="B23" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3153,21 +3151,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3180,10 +3178,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466217.2810164</v>
+        <v>466252.4129913643</v>
       </c>
       <c r="R23" t="n">
-        <v>6820405.537457108</v>
+        <v>6820479.1700904</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3253,10 +3251,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941304</v>
+        <v>111941313</v>
       </c>
       <c r="B24" t="n">
-        <v>78081</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3269,26 +3267,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>229821</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3296,13 +3299,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466297.5338563451</v>
+        <v>466312.3498233365</v>
       </c>
       <c r="R24" t="n">
-        <v>6820498.775792331</v>
+        <v>6820498.631843186</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3350,7 +3353,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3369,10 +3371,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111941316</v>
+        <v>111941129</v>
       </c>
       <c r="B25" t="n">
-        <v>77268</v>
+        <v>88489</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3385,21 +3387,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3412,10 +3414,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466309.3385071067</v>
+        <v>466215.6937692813</v>
       </c>
       <c r="R25" t="n">
-        <v>6820483.866376123</v>
+        <v>6820389.803268042</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3485,10 +3487,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111941036</v>
+        <v>111941104</v>
       </c>
       <c r="B26" t="n">
-        <v>88489</v>
+        <v>77515</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3501,21 +3503,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3528,10 +3530,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466202.3948933159</v>
+        <v>466204.5019952855</v>
       </c>
       <c r="R26" t="n">
-        <v>6820398.523567535</v>
+        <v>6820418.547982995</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3582,6 +3584,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3593,17 +3596,17 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111941039</v>
+        <v>111941108</v>
       </c>
       <c r="B27" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3616,21 +3619,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3643,10 +3646,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466198.2096357141</v>
+        <v>466210.3070825295</v>
       </c>
       <c r="R27" t="n">
-        <v>6820410.495886646</v>
+        <v>6820425.650302363</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3716,7 +3719,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111941030</v>
+        <v>111941827</v>
       </c>
       <c r="B28" t="n">
         <v>77268</v>
@@ -3759,10 +3762,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466186.970276381</v>
+        <v>466325.0201382869</v>
       </c>
       <c r="R28" t="n">
-        <v>6820385.310550921</v>
+        <v>6821015.807131591</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3813,6 +3816,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3831,7 +3835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111941183</v>
+        <v>111941321</v>
       </c>
       <c r="B29" t="n">
         <v>77515</v>
@@ -3874,10 +3878,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466282.3234669994</v>
+        <v>466314.5865380571</v>
       </c>
       <c r="R29" t="n">
-        <v>6820507.514093622</v>
+        <v>6820482.860897989</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3947,10 +3951,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111941651</v>
+        <v>111941116</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>77268</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3963,31 +3967,26 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3995,10 +3994,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466415.338333576</v>
+        <v>466217.2810164</v>
       </c>
       <c r="R30" t="n">
-        <v>6820719.068914215</v>
+        <v>6820405.537457108</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4049,6 +4048,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -2198,10 +2198,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111941039</v>
+        <v>111941329</v>
       </c>
       <c r="B15" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2214,21 +2214,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2241,10 +2241,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466198.2096357141</v>
+        <v>466345.4857086202</v>
       </c>
       <c r="R15" t="n">
-        <v>6820410.495886646</v>
+        <v>6820465.379867064</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111941329</v>
+        <v>111941815</v>
       </c>
       <c r="B16" t="n">
         <v>77515</v>
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466345.4857086202</v>
+        <v>466322.0649085536</v>
       </c>
       <c r="R16" t="n">
-        <v>6820465.379867064</v>
+        <v>6821006.769458532</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2405,6 +2405,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>rikl</t>
+        </is>
+      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2423,17 +2428,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111941815</v>
+        <v>111941039</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2446,21 +2451,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2473,10 +2478,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466322.0649085536</v>
+        <v>466198.2096357141</v>
       </c>
       <c r="R17" t="n">
-        <v>6821006.769458532</v>
+        <v>6820410.495886646</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2521,11 +2526,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>rikl</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111941182</v>
+        <v>111941030</v>
       </c>
       <c r="B3" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,21 +812,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466277.0940431859</v>
+        <v>466186.970276381</v>
       </c>
       <c r="R3" t="n">
-        <v>6820510.428419992</v>
+        <v>6820385.310550921</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -893,7 +893,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -905,17 +904,17 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111941831</v>
+        <v>111941183</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,31 +927,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -960,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466322.7466770636</v>
+        <v>466282.3234669994</v>
       </c>
       <c r="R4" t="n">
-        <v>6821027.758616986</v>
+        <v>6820507.514093622</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1014,6 +1008,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1025,17 +1020,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111941030</v>
+        <v>111941831</v>
       </c>
       <c r="B5" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1048,26 +1043,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466186.970276381</v>
+        <v>466322.7466770636</v>
       </c>
       <c r="R5" t="n">
-        <v>6820385.310550921</v>
+        <v>6821027.758616986</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1147,10 +1147,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111941186</v>
+        <v>111941043</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,21 +1163,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466292.2858541526</v>
+        <v>466184.335225084</v>
       </c>
       <c r="R6" t="n">
-        <v>6820499.781292035</v>
+        <v>6820409.199356439</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1378,10 +1378,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111941046</v>
+        <v>111941329</v>
       </c>
       <c r="B8" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,21 +1394,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466187.3238728072</v>
+        <v>466345.4857086202</v>
       </c>
       <c r="R8" t="n">
-        <v>6820421.57897226</v>
+        <v>6820465.379867064</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111941765</v>
+        <v>111941170</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>77550</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,31 +1510,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1542,10 +1537,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466413.7788343028</v>
+        <v>466281.1216531555</v>
       </c>
       <c r="R9" t="n">
-        <v>6820854.133933268</v>
+        <v>6820531.388039795</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1596,6 +1591,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1607,17 +1603,17 @@
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111941668</v>
+        <v>111941046</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>77550</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1630,31 +1626,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1662,10 +1653,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466427.1314100454</v>
+        <v>466187.3238728072</v>
       </c>
       <c r="R10" t="n">
-        <v>6820752.359779999</v>
+        <v>6820421.57897226</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1716,6 +1707,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1727,17 +1719,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111941325</v>
+        <v>111941182</v>
       </c>
       <c r="B11" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1750,21 +1742,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1777,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466355.6705695012</v>
+        <v>466277.0940431859</v>
       </c>
       <c r="R11" t="n">
-        <v>6820480.553092441</v>
+        <v>6820510.428419992</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1850,10 +1842,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111941043</v>
+        <v>111941151</v>
       </c>
       <c r="B12" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1866,21 +1858,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1893,10 +1885,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466184.335225084</v>
+        <v>466252.4129913643</v>
       </c>
       <c r="R12" t="n">
-        <v>6820409.199356439</v>
+        <v>6820479.1700904</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1966,7 +1958,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111941777</v>
+        <v>111941186</v>
       </c>
       <c r="B13" t="n">
         <v>77515</v>
@@ -2009,10 +2001,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466414.7808195428</v>
+        <v>466292.2858541526</v>
       </c>
       <c r="R13" t="n">
-        <v>6820858.896214374</v>
+        <v>6820499.781292035</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2075,17 +2067,17 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111941316</v>
+        <v>111941651</v>
       </c>
       <c r="B14" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2098,26 +2090,31 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2125,10 +2122,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466309.3385071067</v>
+        <v>466415.338333576</v>
       </c>
       <c r="R14" t="n">
-        <v>6820483.866376123</v>
+        <v>6820719.068914215</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2179,7 +2176,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2191,14 +2187,14 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111941329</v>
+        <v>111941815</v>
       </c>
       <c r="B15" t="n">
         <v>77515</v>
@@ -2241,10 +2237,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466345.4857086202</v>
+        <v>466322.0649085536</v>
       </c>
       <c r="R15" t="n">
-        <v>6820465.379867064</v>
+        <v>6821006.769458532</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2289,6 +2285,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>rikl</t>
+        </is>
+      </c>
       <c r="AD15" t="b">
         <v>0</v>
       </c>
@@ -2307,17 +2308,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111941815</v>
+        <v>111941325</v>
       </c>
       <c r="B16" t="n">
-        <v>77515</v>
+        <v>77550</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2330,21 +2331,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2357,10 +2358,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466322.0649085536</v>
+        <v>466355.6705695012</v>
       </c>
       <c r="R16" t="n">
-        <v>6821006.769458532</v>
+        <v>6820480.553092441</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2405,11 +2406,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>rikl</t>
-        </is>
-      </c>
       <c r="AD16" t="b">
         <v>0</v>
       </c>
@@ -2428,17 +2424,17 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111941039</v>
+        <v>111941104</v>
       </c>
       <c r="B17" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2451,21 +2447,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2478,10 +2474,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466198.2096357141</v>
+        <v>466204.5019952855</v>
       </c>
       <c r="R17" t="n">
-        <v>6820410.495886646</v>
+        <v>6820418.547982995</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2551,10 +2547,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111941170</v>
+        <v>111941668</v>
       </c>
       <c r="B18" t="n">
-        <v>77550</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2567,26 +2563,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2594,10 +2595,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466281.1216531555</v>
+        <v>466427.1314100454</v>
       </c>
       <c r="R18" t="n">
-        <v>6820531.388039795</v>
+        <v>6820752.359779999</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2648,7 +2649,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2660,17 +2660,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111941183</v>
+        <v>111941313</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2683,26 +2683,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2710,10 +2715,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466282.3234669994</v>
+        <v>466312.3498233365</v>
       </c>
       <c r="R19" t="n">
-        <v>6820507.514093622</v>
+        <v>6820498.631843186</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2764,7 +2769,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2783,10 +2787,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111941304</v>
+        <v>111941777</v>
       </c>
       <c r="B20" t="n">
-        <v>78081</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2799,21 +2803,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2826,13 +2830,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466297.5338563451</v>
+        <v>466414.7808195428</v>
       </c>
       <c r="R20" t="n">
-        <v>6820498.775792331</v>
+        <v>6820858.896214374</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2892,17 +2896,17 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111941651</v>
+        <v>111941108</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2915,31 +2919,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2947,10 +2946,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466415.338333576</v>
+        <v>466210.3070825295</v>
       </c>
       <c r="R21" t="n">
-        <v>6820719.068914215</v>
+        <v>6820425.650302363</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3001,6 +3000,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3012,17 +3012,17 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941102</v>
+        <v>111941316</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3035,21 +3035,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3062,10 +3062,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466196.4420402081</v>
+        <v>466309.3385071067</v>
       </c>
       <c r="R22" t="n">
-        <v>6820425.308156498</v>
+        <v>6820483.866376123</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941151</v>
+        <v>111941304</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>78081</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3151,21 +3151,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,13 +3178,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466252.4129913643</v>
+        <v>466297.5338563451</v>
       </c>
       <c r="R23" t="n">
-        <v>6820479.1700904</v>
+        <v>6820498.775792331</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3251,10 +3251,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941313</v>
+        <v>111941129</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>88489</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,31 +3267,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>1962</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3299,10 +3294,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466312.3498233365</v>
+        <v>466215.6937692813</v>
       </c>
       <c r="R24" t="n">
-        <v>6820498.631843186</v>
+        <v>6820389.803268042</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3353,6 +3348,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3371,10 +3367,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111941129</v>
+        <v>111941116</v>
       </c>
       <c r="B25" t="n">
-        <v>88489</v>
+        <v>77268</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3387,21 +3383,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3414,10 +3410,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466215.6937692813</v>
+        <v>466217.2810164</v>
       </c>
       <c r="R25" t="n">
-        <v>6820389.803268042</v>
+        <v>6820405.537457108</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3487,7 +3483,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111941104</v>
+        <v>111941102</v>
       </c>
       <c r="B26" t="n">
         <v>77515</v>
@@ -3530,10 +3526,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466204.5019952855</v>
+        <v>466196.4420402081</v>
       </c>
       <c r="R26" t="n">
-        <v>6820418.547982995</v>
+        <v>6820425.308156498</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3603,10 +3599,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111941108</v>
+        <v>111941039</v>
       </c>
       <c r="B27" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3619,21 +3615,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3646,10 +3642,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466210.3070825295</v>
+        <v>466198.2096357141</v>
       </c>
       <c r="R27" t="n">
-        <v>6820425.650302363</v>
+        <v>6820410.495886646</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3951,10 +3947,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111941116</v>
+        <v>111941765</v>
       </c>
       <c r="B30" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3967,26 +3963,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -3994,10 +3995,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>466217.2810164</v>
+        <v>466413.7788343028</v>
       </c>
       <c r="R30" t="n">
-        <v>6820405.537457108</v>
+        <v>6820854.133933268</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4048,7 +4049,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4060,7 +4060,7 @@
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY30"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466215.6937692813</v>
+        <v>466216</v>
       </c>
       <c r="R2" t="n">
-        <v>6820389.803268042</v>
+        <v>6820390</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -756,19 +756,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,10 +786,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111941030</v>
+        <v>111941668</v>
       </c>
       <c r="B3" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,26 +802,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -839,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466186.970276381</v>
+        <v>466427</v>
       </c>
       <c r="R3" t="n">
-        <v>6820385.310550921</v>
+        <v>6820752</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -872,19 +867,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -911,10 +896,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111941183</v>
+        <v>111941313</v>
       </c>
       <c r="B4" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -927,26 +912,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -954,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466282.3234669994</v>
+        <v>466312</v>
       </c>
       <c r="R4" t="n">
-        <v>6820507.514093622</v>
+        <v>6820499</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -987,28 +977,17 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1027,10 +1006,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111941831</v>
+        <v>111941186</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1043,31 +1022,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1075,10 +1049,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466322.7466770636</v>
+        <v>466292</v>
       </c>
       <c r="R5" t="n">
-        <v>6821027.758616986</v>
+        <v>6820500</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1108,27 +1082,18 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1140,17 +1105,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111941043</v>
+        <v>111941815</v>
       </c>
       <c r="B6" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1163,21 +1128,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1190,10 +1155,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466184.335225084</v>
+        <v>466322</v>
       </c>
       <c r="R6" t="n">
-        <v>6820409.199356439</v>
+        <v>6821007</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,19 +1188,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>rikl</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1256,17 +1216,17 @@
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111941036</v>
+        <v>111941030</v>
       </c>
       <c r="B7" t="n">
-        <v>88489</v>
+        <v>77268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1279,21 +1239,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1306,10 +1266,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466202.3948933159</v>
+        <v>466187</v>
       </c>
       <c r="R7" t="n">
-        <v>6820398.523567535</v>
+        <v>6820385</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1339,19 +1299,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1378,10 +1328,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111941329</v>
+        <v>111941827</v>
       </c>
       <c r="B8" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,21 +1344,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1421,10 +1371,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466345.4857086202</v>
+        <v>466325</v>
       </c>
       <c r="R8" t="n">
-        <v>6820465.379867064</v>
+        <v>6821016</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1454,19 +1404,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1487,17 +1427,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111941170</v>
+        <v>111941102</v>
       </c>
       <c r="B9" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,21 +1450,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1537,10 +1477,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466281.1216531555</v>
+        <v>466196</v>
       </c>
       <c r="R9" t="n">
-        <v>6820531.388039795</v>
+        <v>6820425</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1570,19 +1510,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1610,10 +1540,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111941046</v>
+        <v>111941329</v>
       </c>
       <c r="B10" t="n">
-        <v>77550</v>
+        <v>77515</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1626,21 +1556,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1653,10 +1583,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466187.3238728072</v>
+        <v>466345</v>
       </c>
       <c r="R10" t="n">
-        <v>6820421.57897226</v>
+        <v>6820465</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1686,19 +1616,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1769,10 +1689,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466277.0940431859</v>
+        <v>466277</v>
       </c>
       <c r="R11" t="n">
-        <v>6820510.428419992</v>
+        <v>6820510</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1802,19 +1722,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1842,10 +1752,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111941151</v>
+        <v>111941036</v>
       </c>
       <c r="B12" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1858,21 +1768,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1885,10 +1795,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466252.4129913643</v>
+        <v>466202</v>
       </c>
       <c r="R12" t="n">
-        <v>6820479.1700904</v>
+        <v>6820399</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1918,28 +1828,17 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1951,14 +1850,14 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111941186</v>
+        <v>111941321</v>
       </c>
       <c r="B13" t="n">
         <v>77515</v>
@@ -2001,10 +1900,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466292.2858541526</v>
+        <v>466315</v>
       </c>
       <c r="R13" t="n">
-        <v>6820499.781292035</v>
+        <v>6820483</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2034,19 +1933,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2122,10 +2011,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466415.338333576</v>
+        <v>466415</v>
       </c>
       <c r="R14" t="n">
-        <v>6820719.068914215</v>
+        <v>6820719</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2155,19 +2044,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2194,7 +2073,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111941815</v>
+        <v>111941108</v>
       </c>
       <c r="B15" t="n">
         <v>77515</v>
@@ -2237,10 +2116,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466322.0649085536</v>
+        <v>466210</v>
       </c>
       <c r="R15" t="n">
-        <v>6821006.769458532</v>
+        <v>6820426</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2270,24 +2149,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>rikl</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2308,17 +2172,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111941325</v>
+        <v>111941116</v>
       </c>
       <c r="B16" t="n">
-        <v>77550</v>
+        <v>77268</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2331,21 +2195,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2358,10 +2222,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466355.6705695012</v>
+        <v>466217</v>
       </c>
       <c r="R16" t="n">
-        <v>6820480.553092441</v>
+        <v>6820406</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2391,19 +2255,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2431,10 +2285,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111941104</v>
+        <v>111941129</v>
       </c>
       <c r="B17" t="n">
-        <v>77515</v>
+        <v>88489</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2447,21 +2301,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2474,10 +2328,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466204.5019952855</v>
+        <v>466216</v>
       </c>
       <c r="R17" t="n">
-        <v>6820418.547982995</v>
+        <v>6820390</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2507,19 +2361,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2547,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111941668</v>
+        <v>111941316</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>77268</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2563,31 +2407,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2595,10 +2434,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466427.1314100454</v>
+        <v>466309</v>
       </c>
       <c r="R18" t="n">
-        <v>6820752.359779999</v>
+        <v>6820484</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2628,27 +2467,18 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD18" t="b">
         <v>0</v>
       </c>
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2660,17 +2490,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111941313</v>
+        <v>111941325</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>77550</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2683,31 +2513,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2715,10 +2540,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466312.3498233365</v>
+        <v>466356</v>
       </c>
       <c r="R19" t="n">
-        <v>6820498.631843186</v>
+        <v>6820481</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2748,27 +2573,18 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2787,7 +2603,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111941777</v>
+        <v>111941183</v>
       </c>
       <c r="B20" t="n">
         <v>77515</v>
@@ -2830,10 +2646,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466414.7808195428</v>
+        <v>466282</v>
       </c>
       <c r="R20" t="n">
-        <v>6820858.896214374</v>
+        <v>6820508</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2863,19 +2679,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2896,17 +2702,17 @@
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111941108</v>
+        <v>111941831</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2919,26 +2725,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2946,10 +2757,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466210.3070825295</v>
+        <v>466323</v>
       </c>
       <c r="R21" t="n">
-        <v>6820425.650302363</v>
+        <v>6821028</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2979,28 +2790,17 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3012,17 +2812,17 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941316</v>
+        <v>111941104</v>
       </c>
       <c r="B22" t="n">
-        <v>77268</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3035,21 +2835,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3062,10 +2862,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466309.3385071067</v>
+        <v>466205</v>
       </c>
       <c r="R22" t="n">
-        <v>6820483.866376123</v>
+        <v>6820419</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3095,19 +2895,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3135,10 +2925,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941304</v>
+        <v>111941777</v>
       </c>
       <c r="B23" t="n">
-        <v>78081</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3151,21 +2941,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3178,13 +2968,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466297.5338563451</v>
+        <v>466415</v>
       </c>
       <c r="R23" t="n">
-        <v>6820498.775792331</v>
+        <v>6820859</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3211,19 +3001,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3244,17 +3024,17 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941129</v>
+        <v>111941039</v>
       </c>
       <c r="B24" t="n">
-        <v>88489</v>
+        <v>77268</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3267,21 +3047,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3294,10 +3074,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466215.6937692813</v>
+        <v>466198</v>
       </c>
       <c r="R24" t="n">
-        <v>6820389.803268042</v>
+        <v>6820410</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3327,19 +3107,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3367,10 +3137,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111941116</v>
+        <v>111941765</v>
       </c>
       <c r="B25" t="n">
-        <v>77268</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3383,26 +3153,31 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3410,10 +3185,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466217.2810164</v>
+        <v>466414</v>
       </c>
       <c r="R25" t="n">
-        <v>6820405.537457108</v>
+        <v>6820854</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3443,28 +3218,17 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3476,17 +3240,17 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111941102</v>
+        <v>111941304</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>78081</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3499,21 +3263,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>229821</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3526,13 +3290,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466196.4420402081</v>
+        <v>466298</v>
       </c>
       <c r="R26" t="n">
-        <v>6820425.308156498</v>
+        <v>6820499</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3559,19 +3323,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3599,10 +3353,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111941039</v>
+        <v>111941170</v>
       </c>
       <c r="B27" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3615,21 +3369,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3642,10 +3396,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466198.2096357141</v>
+        <v>466281</v>
       </c>
       <c r="R27" t="n">
-        <v>6820410.495886646</v>
+        <v>6820531</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3675,19 +3429,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3715,10 +3459,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111941827</v>
+        <v>111941046</v>
       </c>
       <c r="B28" t="n">
-        <v>77268</v>
+        <v>77550</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3731,21 +3475,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3758,10 +3502,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466325.0201382869</v>
+        <v>466187</v>
       </c>
       <c r="R28" t="n">
-        <v>6821015.807131591</v>
+        <v>6820422</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3791,19 +3535,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3824,14 +3558,14 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111941321</v>
+        <v>111941151</v>
       </c>
       <c r="B29" t="n">
         <v>77515</v>
@@ -3874,10 +3608,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466314.5865380571</v>
+        <v>466252</v>
       </c>
       <c r="R29" t="n">
-        <v>6820482.860897989</v>
+        <v>6820479</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3907,19 +3641,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3944,126 +3668,6 @@
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>111941765</v>
-      </c>
-      <c r="B30" t="n">
-        <v>56398</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>NT</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>100109</v>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Tretåig hackspett</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Eberget, Dlr</t>
-        </is>
-      </c>
-      <c r="Q30" t="n">
-        <v>466413.7788343028</v>
-      </c>
-      <c r="R30" t="n">
-        <v>6820854.133933268</v>
-      </c>
-      <c r="S30" t="n">
-        <v>10</v>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Dalarna</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>Orsa</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Dalarna</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>Orsa</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AA30" t="inlineStr">
-        <is>
-          <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AD30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AW30" t="inlineStr">
-        <is>
-          <t>Bengt Oldhammer</t>
-        </is>
-      </c>
-      <c r="AX30" t="inlineStr">
-        <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
-        </is>
-      </c>
-      <c r="AY30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111932664</v>
+        <v>111941765</v>
       </c>
       <c r="B2" t="n">
-        <v>89672</v>
+        <v>56430</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,35 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>71</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,13 +728,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466216</v>
+        <v>466414</v>
       </c>
       <c r="R2" t="n">
-        <v>6820390</v>
+        <v>6820854</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -767,7 +772,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -779,17 +783,17 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111941668</v>
+        <v>111941777</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>77636</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,31 +806,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -834,10 +833,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466427</v>
+        <v>466415</v>
       </c>
       <c r="R3" t="n">
-        <v>6820752</v>
+        <v>6820859</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,6 +877,7 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -896,10 +896,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111941313</v>
+        <v>111941651</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466312</v>
+        <v>466415</v>
       </c>
       <c r="R4" t="n">
-        <v>6820499</v>
+        <v>6820719</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -999,17 +999,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111941186</v>
+        <v>111941668</v>
       </c>
       <c r="B5" t="n">
-        <v>77515</v>
+        <v>56430</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1022,26 +1022,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1049,10 +1054,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466292</v>
+        <v>466427</v>
       </c>
       <c r="R5" t="n">
-        <v>6820500</v>
+        <v>6820752</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1093,7 +1098,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1105,17 +1109,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111941815</v>
+        <v>111941831</v>
       </c>
       <c r="B6" t="n">
-        <v>77515</v>
+        <v>56430</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1128,26 +1132,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1155,10 +1164,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466322</v>
+        <v>466323</v>
       </c>
       <c r="R6" t="n">
-        <v>6821007</v>
+        <v>6821028</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1193,18 +1202,12 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>rikl</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1223,10 +1226,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111941030</v>
+        <v>111941827</v>
       </c>
       <c r="B7" t="n">
-        <v>77268</v>
+        <v>77389</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,10 +1269,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466187</v>
+        <v>466325</v>
       </c>
       <c r="R7" t="n">
-        <v>6820385</v>
+        <v>6821016</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1310,6 +1313,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1328,10 +1332,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111941827</v>
+        <v>111941815</v>
       </c>
       <c r="B8" t="n">
-        <v>77268</v>
+        <v>77636</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1344,21 +1348,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1371,10 +1375,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466325</v>
+        <v>466322</v>
       </c>
       <c r="R8" t="n">
-        <v>6821016</v>
+        <v>6821007</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,6 +1411,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>rikl</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1434,10 +1443,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111941102</v>
+        <v>111941325</v>
       </c>
       <c r="B9" t="n">
-        <v>77515</v>
+        <v>77671</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1450,21 +1459,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1477,10 +1486,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466196</v>
+        <v>466356</v>
       </c>
       <c r="R9" t="n">
-        <v>6820425</v>
+        <v>6820481</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1543,7 +1552,7 @@
         <v>111941329</v>
       </c>
       <c r="B10" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1646,10 +1655,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111941182</v>
+        <v>111932664</v>
       </c>
       <c r="B11" t="n">
-        <v>77515</v>
+        <v>89806</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1658,25 +1667,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>71</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1689,13 +1698,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466277</v>
+        <v>466216</v>
       </c>
       <c r="R11" t="n">
-        <v>6820510</v>
+        <v>6820390</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1752,10 +1761,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111941036</v>
+        <v>111941316</v>
       </c>
       <c r="B12" t="n">
-        <v>88489</v>
+        <v>77389</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1768,21 +1777,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1795,10 +1804,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466202</v>
+        <v>466309</v>
       </c>
       <c r="R12" t="n">
-        <v>6820399</v>
+        <v>6820484</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1839,6 +1848,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1850,7 +1860,7 @@
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -1860,7 +1870,7 @@
         <v>111941321</v>
       </c>
       <c r="B13" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1963,10 +1973,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111941651</v>
+        <v>111941186</v>
       </c>
       <c r="B14" t="n">
-        <v>56398</v>
+        <v>77636</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1979,31 +1989,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -2011,10 +2016,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466415</v>
+        <v>466292</v>
       </c>
       <c r="R14" t="n">
-        <v>6820719</v>
+        <v>6820500</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2055,6 +2060,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2066,17 +2072,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111941108</v>
+        <v>111941129</v>
       </c>
       <c r="B15" t="n">
-        <v>77515</v>
+        <v>88623</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2089,21 +2095,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2116,10 +2122,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466210</v>
+        <v>466216</v>
       </c>
       <c r="R15" t="n">
-        <v>6820426</v>
+        <v>6820390</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2179,10 +2185,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111941116</v>
+        <v>111941170</v>
       </c>
       <c r="B16" t="n">
-        <v>77268</v>
+        <v>77671</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2195,21 +2201,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>228912</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2222,10 +2228,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466217</v>
+        <v>466281</v>
       </c>
       <c r="R16" t="n">
-        <v>6820406</v>
+        <v>6820531</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2285,10 +2291,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111941129</v>
+        <v>111941039</v>
       </c>
       <c r="B17" t="n">
-        <v>88489</v>
+        <v>77389</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2301,21 +2307,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2328,10 +2334,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466216</v>
+        <v>466198</v>
       </c>
       <c r="R17" t="n">
-        <v>6820390</v>
+        <v>6820410</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2391,10 +2397,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111941316</v>
+        <v>111941313</v>
       </c>
       <c r="B18" t="n">
-        <v>77268</v>
+        <v>56430</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2407,26 +2413,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2434,10 +2445,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466309</v>
+        <v>466312</v>
       </c>
       <c r="R18" t="n">
-        <v>6820484</v>
+        <v>6820499</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2478,7 +2489,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2497,10 +2507,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111941325</v>
+        <v>111941304</v>
       </c>
       <c r="B19" t="n">
-        <v>77550</v>
+        <v>78202</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2513,21 +2523,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>185</v>
+        <v>229821</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2540,13 +2550,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466356</v>
+        <v>466298</v>
       </c>
       <c r="R19" t="n">
-        <v>6820481</v>
+        <v>6820499</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2603,10 +2613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111941183</v>
+        <v>111941116</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>77389</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2619,21 +2629,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2646,10 +2656,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466282</v>
+        <v>466217</v>
       </c>
       <c r="R20" t="n">
-        <v>6820508</v>
+        <v>6820406</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2709,10 +2719,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111941831</v>
+        <v>111941046</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>77671</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2725,31 +2735,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>185</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2757,10 +2762,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466323</v>
+        <v>466187</v>
       </c>
       <c r="R21" t="n">
-        <v>6821028</v>
+        <v>6820422</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2801,6 +2806,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2812,17 +2818,17 @@
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941104</v>
+        <v>111941102</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2862,10 +2868,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466205</v>
+        <v>466196</v>
       </c>
       <c r="R22" t="n">
-        <v>6820419</v>
+        <v>6820425</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2925,10 +2931,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941777</v>
+        <v>111941182</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2968,10 +2974,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466415</v>
+        <v>466277</v>
       </c>
       <c r="R23" t="n">
-        <v>6820859</v>
+        <v>6820510</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3024,17 +3030,17 @@
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941039</v>
+        <v>111941036</v>
       </c>
       <c r="B24" t="n">
-        <v>77268</v>
+        <v>88623</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3047,21 +3053,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>228912</v>
+        <v>1962</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3074,10 +3080,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466198</v>
+        <v>466202</v>
       </c>
       <c r="R24" t="n">
-        <v>6820410</v>
+        <v>6820399</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3118,7 +3124,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3130,17 +3135,17 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111941765</v>
+        <v>111941108</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>77636</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3153,31 +3158,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3185,10 +3185,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466414</v>
+        <v>466210</v>
       </c>
       <c r="R25" t="n">
-        <v>6820854</v>
+        <v>6820426</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3229,6 +3229,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3240,17 +3241,17 @@
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111941304</v>
+        <v>111941104</v>
       </c>
       <c r="B26" t="n">
-        <v>78081</v>
+        <v>77636</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3263,21 +3264,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3290,13 +3291,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466298</v>
+        <v>466205</v>
       </c>
       <c r="R26" t="n">
-        <v>6820499</v>
+        <v>6820419</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3353,10 +3354,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111941170</v>
+        <v>111941183</v>
       </c>
       <c r="B27" t="n">
-        <v>77550</v>
+        <v>77636</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3369,21 +3370,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3396,10 +3397,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466281</v>
+        <v>466282</v>
       </c>
       <c r="R27" t="n">
-        <v>6820531</v>
+        <v>6820508</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3459,10 +3460,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111941046</v>
+        <v>111941030</v>
       </c>
       <c r="B28" t="n">
-        <v>77550</v>
+        <v>77389</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3475,21 +3476,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>185</v>
+        <v>228912</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3505,7 +3506,7 @@
         <v>466187</v>
       </c>
       <c r="R28" t="n">
-        <v>6820422</v>
+        <v>6820385</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3546,7 +3547,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
@@ -3568,7 +3568,7 @@
         <v>111941151</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>77636</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -793,7 +793,7 @@
         <v>111941777</v>
       </c>
       <c r="B3" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1229,7 +1229,7 @@
         <v>111941827</v>
       </c>
       <c r="B7" t="n">
-        <v>77389</v>
+        <v>77403</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>111941815</v>
       </c>
       <c r="B8" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>111941325</v>
       </c>
       <c r="B9" t="n">
-        <v>77671</v>
+        <v>77685</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1552,7 +1552,7 @@
         <v>111941329</v>
       </c>
       <c r="B10" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>111932664</v>
       </c>
       <c r="B11" t="n">
-        <v>89806</v>
+        <v>89820</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1761,10 +1761,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111941316</v>
+        <v>111941151</v>
       </c>
       <c r="B12" t="n">
-        <v>77389</v>
+        <v>77650</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1777,21 +1777,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1804,10 +1804,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466309</v>
+        <v>466252</v>
       </c>
       <c r="R12" t="n">
-        <v>6820484</v>
+        <v>6820479</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1867,10 +1867,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111941321</v>
+        <v>111941129</v>
       </c>
       <c r="B13" t="n">
-        <v>77636</v>
+        <v>88637</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1883,21 +1883,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1910,10 +1910,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466315</v>
+        <v>466216</v>
       </c>
       <c r="R13" t="n">
-        <v>6820483</v>
+        <v>6820390</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1973,10 +1973,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111941186</v>
+        <v>111941183</v>
       </c>
       <c r="B14" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466292</v>
+        <v>466282</v>
       </c>
       <c r="R14" t="n">
-        <v>6820500</v>
+        <v>6820508</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2079,10 +2079,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111941129</v>
+        <v>111941313</v>
       </c>
       <c r="B15" t="n">
-        <v>88623</v>
+        <v>56430</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2095,26 +2095,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1962</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2122,10 +2127,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466216</v>
+        <v>466312</v>
       </c>
       <c r="R15" t="n">
-        <v>6820390</v>
+        <v>6820499</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2166,7 +2171,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2185,10 +2189,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111941170</v>
+        <v>111941304</v>
       </c>
       <c r="B16" t="n">
-        <v>77671</v>
+        <v>78216</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2201,21 +2205,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>185</v>
+        <v>229821</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2228,13 +2232,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466281</v>
+        <v>466298</v>
       </c>
       <c r="R16" t="n">
-        <v>6820531</v>
+        <v>6820499</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2291,10 +2295,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111941039</v>
+        <v>111941116</v>
       </c>
       <c r="B17" t="n">
-        <v>77389</v>
+        <v>77403</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2334,10 +2338,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466198</v>
+        <v>466217</v>
       </c>
       <c r="R17" t="n">
-        <v>6820410</v>
+        <v>6820406</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2397,10 +2401,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111941313</v>
+        <v>111941321</v>
       </c>
       <c r="B18" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2413,31 +2417,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2445,10 +2444,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466312</v>
+        <v>466315</v>
       </c>
       <c r="R18" t="n">
-        <v>6820499</v>
+        <v>6820483</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2489,6 +2488,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2507,10 +2507,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111941304</v>
+        <v>111941039</v>
       </c>
       <c r="B19" t="n">
-        <v>78202</v>
+        <v>77403</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2523,21 +2523,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2550,13 +2550,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466298</v>
+        <v>466198</v>
       </c>
       <c r="R19" t="n">
-        <v>6820499</v>
+        <v>6820410</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111941116</v>
+        <v>111941182</v>
       </c>
       <c r="B20" t="n">
-        <v>77389</v>
+        <v>77650</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2629,21 +2629,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2656,10 +2656,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466217</v>
+        <v>466277</v>
       </c>
       <c r="R20" t="n">
-        <v>6820406</v>
+        <v>6820510</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2719,10 +2719,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111941046</v>
+        <v>111941102</v>
       </c>
       <c r="B21" t="n">
-        <v>77671</v>
+        <v>77650</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2735,21 +2735,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2762,10 +2762,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466187</v>
+        <v>466196</v>
       </c>
       <c r="R21" t="n">
-        <v>6820422</v>
+        <v>6820425</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2825,10 +2825,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941102</v>
+        <v>111941104</v>
       </c>
       <c r="B22" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466196</v>
+        <v>466205</v>
       </c>
       <c r="R22" t="n">
-        <v>6820425</v>
+        <v>6820419</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2931,10 +2931,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941182</v>
+        <v>111941186</v>
       </c>
       <c r="B23" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2974,10 +2974,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466277</v>
+        <v>466292</v>
       </c>
       <c r="R23" t="n">
-        <v>6820510</v>
+        <v>6820500</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3037,10 +3037,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941036</v>
+        <v>111941170</v>
       </c>
       <c r="B24" t="n">
-        <v>88623</v>
+        <v>77685</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3053,21 +3053,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1962</v>
+        <v>185</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466202</v>
+        <v>466281</v>
       </c>
       <c r="R24" t="n">
-        <v>6820399</v>
+        <v>6820531</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3124,6 +3124,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3135,7 +3136,7 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
@@ -3145,7 +3146,7 @@
         <v>111941108</v>
       </c>
       <c r="B25" t="n">
-        <v>77636</v>
+        <v>77650</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3248,10 +3249,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111941104</v>
+        <v>111941036</v>
       </c>
       <c r="B26" t="n">
-        <v>77636</v>
+        <v>88637</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3264,21 +3265,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3291,10 +3292,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466205</v>
+        <v>466202</v>
       </c>
       <c r="R26" t="n">
-        <v>6820419</v>
+        <v>6820399</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3335,7 +3336,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3347,17 +3347,17 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111941183</v>
+        <v>111941316</v>
       </c>
       <c r="B27" t="n">
-        <v>77636</v>
+        <v>77403</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3370,21 +3370,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3397,10 +3397,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466282</v>
+        <v>466309</v>
       </c>
       <c r="R27" t="n">
-        <v>6820508</v>
+        <v>6820484</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3463,7 +3463,7 @@
         <v>111941030</v>
       </c>
       <c r="B28" t="n">
-        <v>77389</v>
+        <v>77403</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3565,10 +3565,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111941151</v>
+        <v>111941046</v>
       </c>
       <c r="B29" t="n">
-        <v>77636</v>
+        <v>77685</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3581,21 +3581,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3608,10 +3608,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466252</v>
+        <v>466187</v>
       </c>
       <c r="R29" t="n">
-        <v>6820479</v>
+        <v>6820422</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111941765</v>
+        <v>111932664</v>
       </c>
       <c r="B2" t="n">
-        <v>56430</v>
+        <v>89820</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,35 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>EN</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>71</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Urskogsporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Neoantrodia infirma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Renvall &amp; Niemelä) Audet</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,13 +723,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>466414</v>
+        <v>466216</v>
       </c>
       <c r="R2" t="n">
-        <v>6820854</v>
+        <v>6820390</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -772,6 +767,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -783,14 +779,14 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111941777</v>
+        <v>111941815</v>
       </c>
       <c r="B3" t="n">
         <v>77650</v>
@@ -833,10 +829,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>466415</v>
+        <v>466322</v>
       </c>
       <c r="R3" t="n">
-        <v>6820859</v>
+        <v>6821007</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -869,6 +865,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>rikl</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -896,10 +897,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111941651</v>
+        <v>111941182</v>
       </c>
       <c r="B4" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -912,31 +913,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -944,10 +940,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>466415</v>
+        <v>466277</v>
       </c>
       <c r="R4" t="n">
-        <v>6820719</v>
+        <v>6820510</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -988,6 +984,7 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -999,17 +996,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111941668</v>
+        <v>111941039</v>
       </c>
       <c r="B5" t="n">
-        <v>56430</v>
+        <v>77403</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1022,31 +1019,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1054,10 +1046,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>466427</v>
+        <v>466198</v>
       </c>
       <c r="R5" t="n">
-        <v>6820752</v>
+        <v>6820410</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1098,6 +1090,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1109,14 +1102,14 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111941831</v>
+        <v>111941651</v>
       </c>
       <c r="B6" t="n">
         <v>56430</v>
@@ -1164,10 +1157,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>466323</v>
+        <v>466415</v>
       </c>
       <c r="R6" t="n">
-        <v>6821028</v>
+        <v>6820719</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1226,10 +1219,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111941827</v>
+        <v>111941108</v>
       </c>
       <c r="B7" t="n">
-        <v>77403</v>
+        <v>77650</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1242,21 +1235,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1269,10 +1262,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>466325</v>
+        <v>466210</v>
       </c>
       <c r="R7" t="n">
-        <v>6821016</v>
+        <v>6820426</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1325,14 +1318,14 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111941815</v>
+        <v>111941104</v>
       </c>
       <c r="B8" t="n">
         <v>77650</v>
@@ -1375,10 +1368,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>466322</v>
+        <v>466205</v>
       </c>
       <c r="R8" t="n">
-        <v>6821007</v>
+        <v>6820419</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1413,11 +1406,6 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>rikl</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1436,17 +1424,17 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111941325</v>
+        <v>111941304</v>
       </c>
       <c r="B9" t="n">
-        <v>77685</v>
+        <v>78216</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1459,21 +1447,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>185</v>
+        <v>229821</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1486,13 +1474,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>466356</v>
+        <v>466298</v>
       </c>
       <c r="R9" t="n">
-        <v>6820481</v>
+        <v>6820499</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1549,7 +1537,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111941329</v>
+        <v>111941151</v>
       </c>
       <c r="B10" t="n">
         <v>77650</v>
@@ -1592,10 +1580,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>466345</v>
+        <v>466252</v>
       </c>
       <c r="R10" t="n">
-        <v>6820465</v>
+        <v>6820479</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1655,10 +1643,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111932664</v>
+        <v>111941030</v>
       </c>
       <c r="B11" t="n">
-        <v>89820</v>
+        <v>77403</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1667,25 +1655,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>EN</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>71</v>
+        <v>228912</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Urskogsporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Neoantrodia infirma</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Renvall &amp; Niemelä) Audet</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1698,13 +1686,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>466216</v>
+        <v>466187</v>
       </c>
       <c r="R11" t="n">
-        <v>6820390</v>
+        <v>6820385</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1742,7 +1730,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1754,14 +1741,14 @@
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111941151</v>
+        <v>111941102</v>
       </c>
       <c r="B12" t="n">
         <v>77650</v>
@@ -1804,10 +1791,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>466252</v>
+        <v>466196</v>
       </c>
       <c r="R12" t="n">
-        <v>6820479</v>
+        <v>6820425</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1867,10 +1854,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111941129</v>
+        <v>111941827</v>
       </c>
       <c r="B13" t="n">
-        <v>88637</v>
+        <v>77403</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1883,21 +1870,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1910,10 +1897,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466216</v>
+        <v>466325</v>
       </c>
       <c r="R13" t="n">
-        <v>6820390</v>
+        <v>6821016</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1966,7 +1953,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -2079,10 +2066,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111941313</v>
+        <v>111941036</v>
       </c>
       <c r="B15" t="n">
-        <v>56430</v>
+        <v>88637</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2095,31 +2082,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>1962</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2127,10 +2109,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>466312</v>
+        <v>466202</v>
       </c>
       <c r="R15" t="n">
-        <v>6820499</v>
+        <v>6820399</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2182,17 +2164,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111941304</v>
+        <v>111941046</v>
       </c>
       <c r="B16" t="n">
-        <v>78216</v>
+        <v>77685</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2205,21 +2187,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>229821</v>
+        <v>185</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2232,13 +2214,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>466298</v>
+        <v>466187</v>
       </c>
       <c r="R16" t="n">
-        <v>6820499</v>
+        <v>6820422</v>
       </c>
       <c r="S16" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2295,10 +2277,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111941116</v>
+        <v>111941777</v>
       </c>
       <c r="B17" t="n">
-        <v>77403</v>
+        <v>77650</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2311,21 +2293,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2338,10 +2320,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>466217</v>
+        <v>466415</v>
       </c>
       <c r="R17" t="n">
-        <v>6820406</v>
+        <v>6820859</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2394,17 +2376,17 @@
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111941321</v>
+        <v>111941765</v>
       </c>
       <c r="B18" t="n">
-        <v>77650</v>
+        <v>56430</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2417,26 +2399,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2444,10 +2431,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>466315</v>
+        <v>466414</v>
       </c>
       <c r="R18" t="n">
-        <v>6820483</v>
+        <v>6820854</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2488,7 +2475,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2500,17 +2486,17 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111941039</v>
+        <v>111941321</v>
       </c>
       <c r="B19" t="n">
-        <v>77403</v>
+        <v>77650</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2523,21 +2509,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2550,10 +2536,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>466198</v>
+        <v>466315</v>
       </c>
       <c r="R19" t="n">
-        <v>6820410</v>
+        <v>6820483</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2613,10 +2599,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111941182</v>
+        <v>111941325</v>
       </c>
       <c r="B20" t="n">
-        <v>77650</v>
+        <v>77685</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2629,21 +2615,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2656,10 +2642,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>466277</v>
+        <v>466356</v>
       </c>
       <c r="R20" t="n">
-        <v>6820510</v>
+        <v>6820481</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2719,10 +2705,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111941102</v>
+        <v>111941116</v>
       </c>
       <c r="B21" t="n">
-        <v>77650</v>
+        <v>77403</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2735,21 +2721,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2762,10 +2748,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>466196</v>
+        <v>466217</v>
       </c>
       <c r="R21" t="n">
-        <v>6820425</v>
+        <v>6820406</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2825,10 +2811,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941104</v>
+        <v>111941129</v>
       </c>
       <c r="B22" t="n">
-        <v>77650</v>
+        <v>88637</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2841,21 +2827,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2868,10 +2854,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466205</v>
+        <v>466216</v>
       </c>
       <c r="R22" t="n">
-        <v>6820419</v>
+        <v>6820390</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2931,7 +2917,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941186</v>
+        <v>111941329</v>
       </c>
       <c r="B23" t="n">
         <v>77650</v>
@@ -2974,10 +2960,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466292</v>
+        <v>466345</v>
       </c>
       <c r="R23" t="n">
-        <v>6820500</v>
+        <v>6820465</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3037,10 +3023,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941170</v>
+        <v>111941831</v>
       </c>
       <c r="B24" t="n">
-        <v>77685</v>
+        <v>56430</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3053,26 +3039,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3080,10 +3071,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466281</v>
+        <v>466323</v>
       </c>
       <c r="R24" t="n">
-        <v>6820531</v>
+        <v>6821028</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3124,7 +3115,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3136,17 +3126,17 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111941108</v>
+        <v>111941170</v>
       </c>
       <c r="B25" t="n">
-        <v>77650</v>
+        <v>77685</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3159,21 +3149,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3186,10 +3176,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>466210</v>
+        <v>466281</v>
       </c>
       <c r="R25" t="n">
-        <v>6820426</v>
+        <v>6820531</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3249,10 +3239,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111941036</v>
+        <v>111941316</v>
       </c>
       <c r="B26" t="n">
-        <v>88637</v>
+        <v>77403</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3265,21 +3255,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1962</v>
+        <v>228912</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3292,10 +3282,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>466202</v>
+        <v>466309</v>
       </c>
       <c r="R26" t="n">
-        <v>6820399</v>
+        <v>6820484</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3336,6 +3326,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3347,17 +3338,17 @@
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111941316</v>
+        <v>111941186</v>
       </c>
       <c r="B27" t="n">
-        <v>77403</v>
+        <v>77650</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3370,21 +3361,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3397,10 +3388,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>466309</v>
+        <v>466292</v>
       </c>
       <c r="R27" t="n">
-        <v>6820484</v>
+        <v>6820500</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3460,10 +3451,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111941030</v>
+        <v>111941313</v>
       </c>
       <c r="B28" t="n">
-        <v>77403</v>
+        <v>56430</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3476,26 +3467,31 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>228912</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3503,10 +3499,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>466187</v>
+        <v>466312</v>
       </c>
       <c r="R28" t="n">
-        <v>6820385</v>
+        <v>6820499</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3558,17 +3554,17 @@
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111941046</v>
+        <v>111941668</v>
       </c>
       <c r="B29" t="n">
-        <v>77685</v>
+        <v>56430</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3581,26 +3577,31 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>185</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3608,10 +3609,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>466187</v>
+        <v>466427</v>
       </c>
       <c r="R29" t="n">
-        <v>6820422</v>
+        <v>6820752</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3652,7 +3653,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>

--- a/artfynd/A 36883-2023.xlsx
+++ b/artfynd/A 36883-2023.xlsx
@@ -1854,10 +1854,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111941827</v>
+        <v>111941183</v>
       </c>
       <c r="B13" t="n">
-        <v>77403</v>
+        <v>77650</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1870,21 +1870,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>228912</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1897,10 +1897,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>466325</v>
+        <v>466282</v>
       </c>
       <c r="R13" t="n">
-        <v>6821016</v>
+        <v>6820508</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1953,17 +1953,17 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111941183</v>
+        <v>111941827</v>
       </c>
       <c r="B14" t="n">
-        <v>77650</v>
+        <v>77403</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1976,21 +1976,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2003,10 +2003,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>466282</v>
+        <v>466325</v>
       </c>
       <c r="R14" t="n">
-        <v>6820508</v>
+        <v>6821016</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111941129</v>
+        <v>111941831</v>
       </c>
       <c r="B22" t="n">
-        <v>88637</v>
+        <v>56430</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2827,26 +2827,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1962</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -2854,10 +2859,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>466216</v>
+        <v>466323</v>
       </c>
       <c r="R22" t="n">
-        <v>6820390</v>
+        <v>6821028</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2898,7 +2903,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -2910,17 +2914,17 @@
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
+          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111941329</v>
+        <v>111941129</v>
       </c>
       <c r="B23" t="n">
-        <v>77650</v>
+        <v>88637</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2933,21 +2937,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2960,10 +2964,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>466345</v>
+        <v>466216</v>
       </c>
       <c r="R23" t="n">
-        <v>6820465</v>
+        <v>6820390</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3023,10 +3027,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111941831</v>
+        <v>111941329</v>
       </c>
       <c r="B24" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3039,31 +3043,26 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3071,10 +3070,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>466323</v>
+        <v>466345</v>
       </c>
       <c r="R24" t="n">
-        <v>6821028</v>
+        <v>6820465</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3115,6 +3114,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Bengt Oldhammer, Peter Turander, Birgitta Kvist</t>
+          <t>Bengt Oldhammer, Birgitta Kvist, Peter Turander</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
